--- a/ExcelTool/TestCases/excel_import_template.xlsx
+++ b/ExcelTool/TestCases/excel_import_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schong\source\repos\ExcelTool\ExcelTool\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -742,7 +742,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
